--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T20:06:08+00:00</t>
+    <t>2022-01-10T15:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T15:11:55+00:00</t>
+    <t>2022-01-25T14:39:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T14:39:04+00:00</t>
+    <t>2022-01-31T16:29:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T16:29:45+00:00</t>
+    <t>2022-01-31T20:10:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T20:10:04+00:00</t>
+    <t>2022-02-11T00:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T00:28:19+00:00</t>
+    <t>2022-02-11T01:45:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T01:45:45+00:00</t>
+    <t>2022-02-13T22:11:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-13T22:11:31+00:00</t>
+    <t>2022-03-01T19:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T19:29:42+00:00</t>
+    <t>2022-03-04T23:14:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T23:14:40+00:00</t>
+    <t>2022-03-05T00:52:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T00:52:55+00:00</t>
+    <t>2022-03-05T01:03:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:03:34+00:00</t>
+    <t>2022-03-05T01:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:09:46+00:00</t>
+    <t>2022-03-18T16:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T16:50:55+00:00</t>
+    <t>2022-03-19T18:10:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:10:29+00:00</t>
+    <t>2022-03-19T18:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:27:00+00:00</t>
+    <t>2022-03-20T18:26:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T18:26:18+00:00</t>
+    <t>2022-03-20T19:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T19:00:26+00:00</t>
+    <t>2022-03-21T17:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T17:45:13+00:00</t>
+    <t>2022-03-21T18:09:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T18:09:33+00:00</t>
+    <t>2022-03-22T20:54:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T20:54:15+00:00</t>
+    <t>2022-03-23T00:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:01:05+00:00</t>
+    <t>2022-03-23T00:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:19:03+00:00</t>
+    <t>2022-03-23T00:33:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:33:43+00:00</t>
+    <t>2022-03-23T18:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T18:40:06+00:00</t>
+    <t>2022-03-23T19:11:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:11:09+00:00</t>
+    <t>2022-03-23T19:27:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:27:55+00:00</t>
+    <t>2022-03-23T20:20:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:20:45+00:00</t>
+    <t>2022-03-23T20:39:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:39:07+00:00</t>
+    <t>2022-03-23T21:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T21:03:35+00:00</t>
+    <t>2022-03-24T19:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:03:35+00:00</t>
+    <t>2022-03-24T19:25:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:25:05+00:00</t>
+    <t>2022-03-24T20:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:10:48+00:00</t>
+    <t>2022-03-24T20:26:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:26:37+00:00</t>
+    <t>2022-03-26T21:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:07:52+00:00</t>
+    <t>2022-03-26T21:44:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:44:34+00:00</t>
+    <t>2022-03-26T21:58:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:58:42+00:00</t>
+    <t>2022-03-26T22:00:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T22:00:49+00:00</t>
+    <t>2022-03-28T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T14:06:51+00:00</t>
+    <t>2022-03-28T17:18:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T17:18:58+00:00</t>
+    <t>2022-03-28T18:48:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T18:48:26+00:00</t>
+    <t>2022-03-28T20:08:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T20:08:43+00:00</t>
+    <t>2022-03-28T23:34:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:34:19+00:00</t>
+    <t>2022-03-28T23:45:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:45:02+00:00</t>
+    <t>2022-03-28T23:47:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:47:33+00:00</t>
+    <t>2022-03-29T00:49:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T00:49:23+00:00</t>
+    <t>2022-03-29T01:03:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:03:03+00:00</t>
+    <t>2022-03-29T01:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:33:50+00:00</t>
+    <t>2022-03-29T22:51:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T22:51:35+00:00</t>
+    <t>2022-03-30T04:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T04:10:02+00:00</t>
+    <t>2022-03-30T05:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:07:06+00:00</t>
+    <t>2022-03-30T05:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:24:10+00:00</t>
+    <t>2022-03-30T15:00:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T15:00:01+00:00</t>
+    <t>2022-03-30T20:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T20:32:02+00:00</t>
+    <t>2022-03-31T03:49:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T03:49:14+00:00</t>
+    <t>2022-03-31T04:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:31:26+00:00</t>
+    <t>2022-03-31T04:46:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:46:55+00:00</t>
+    <t>2022-03-31T06:22:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:22:16+00:00</t>
+    <t>2022-03-31T06:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:42:10+00:00</t>
+    <t>2022-04-26T17:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T17:07:52+00:00</t>
+    <t>2022-05-27T14:27:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T14:27:29+00:00</t>
+    <t>2022-06-01T13:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T13:01:08+00:00</t>
+    <t>2022-09-27T20:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -281,45 +281,49 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>List.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>List.meta.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>List.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>List.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -370,10 +374,6 @@
   </si>
   <si>
     <t>List.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
   </si>
   <si>
     <t>Version specific identifier</t>
@@ -1724,39 +1724,39 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="26.87890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="17.77734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.78125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="52.78125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="52.5859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="185.94140625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
@@ -2224,13 +2224,13 @@
         <v>78</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2281,7 +2281,7 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
@@ -2296,7 +2296,7 @@
         <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>78</v>
@@ -2307,11 +2307,11 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2330,16 +2330,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2377,19 +2377,19 @@
         <v>78</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
@@ -2401,10 +2401,10 @@
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>78</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -2438,7 +2438,7 @@
         <v>86</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>116</v>
@@ -3518,7 +3518,7 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>187</v>
@@ -3563,14 +3563,14 @@
         <v>78</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>189</v>
@@ -3585,7 +3585,7 @@
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>78</v>
@@ -3693,7 +3693,7 @@
         <v>194</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>78</v>
@@ -3801,7 +3801,7 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>78</v>
@@ -3909,7 +3909,7 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>78</v>
@@ -3946,7 +3946,7 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>187</v>
@@ -4015,7 +4015,7 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>78</v>
@@ -4104,7 +4104,7 @@
         <v>78</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>208</v>
@@ -4264,13 +4264,13 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4321,7 +4321,7 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -4336,7 +4336,7 @@
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
@@ -4351,7 +4351,7 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4370,16 +4370,16 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4417,19 +4417,19 @@
         <v>78</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
@@ -4441,10 +4441,10 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
@@ -4808,7 +4808,7 @@
         <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>249</v>
@@ -5238,13 +5238,13 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5295,7 +5295,7 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
@@ -5310,7 +5310,7 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5344,16 +5344,16 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5391,19 +5391,19 @@
         <v>78</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -5415,10 +5415,10 @@
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
@@ -5782,7 +5782,7 @@
         <v>86</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>249</v>
@@ -6322,7 +6322,7 @@
         <v>86</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>291</v>
@@ -6648,13 +6648,13 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6705,7 +6705,7 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
@@ -6720,7 +6720,7 @@
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
@@ -6735,7 +6735,7 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6754,16 +6754,16 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6801,19 +6801,19 @@
         <v>78</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -6825,10 +6825,10 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
@@ -6862,7 +6862,7 @@
         <v>86</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>319</v>
@@ -7186,7 +7186,7 @@
         <v>86</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>338</v>
@@ -7372,7 +7372,7 @@
         <v>347</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" hidden="true">
@@ -7620,13 +7620,13 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7677,7 +7677,7 @@
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
@@ -7692,7 +7692,7 @@
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
@@ -7707,7 +7707,7 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7726,16 +7726,16 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7773,19 +7773,19 @@
         <v>78</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
@@ -7797,10 +7797,10 @@
         <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
@@ -7893,7 +7893,7 @@
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
@@ -7905,7 +7905,7 @@
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>78</v>
@@ -7942,7 +7942,7 @@
         <v>86</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>319</v>
@@ -8266,7 +8266,7 @@
         <v>86</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K61" t="s" s="2">
         <v>338</v>
@@ -8456,7 +8456,7 @@
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" hidden="true">
@@ -8698,13 +8698,13 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8755,7 +8755,7 @@
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>76</v>
@@ -8770,7 +8770,7 @@
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
@@ -8785,7 +8785,7 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8804,16 +8804,16 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -8863,7 +8863,7 @@
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>76</v>
@@ -8875,10 +8875,10 @@
         <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
@@ -8912,7 +8912,7 @@
         <v>86</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K67" t="s" s="2">
         <v>403</v>
@@ -8921,7 +8921,7 @@
         <v>404</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N67" t="s" s="2">
         <v>405</v>
@@ -8985,7 +8985,7 @@
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>185</v>
@@ -9104,7 +9104,7 @@
         <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" hidden="true">
@@ -9216,7 +9216,7 @@
         <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="70" hidden="true">
@@ -9324,7 +9324,7 @@
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" hidden="true">
@@ -9540,7 +9540,7 @@
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:02:38+00:00</t>
+    <t>2022-09-27T20:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:20:50+00:00</t>
+    <t>2022-09-27T20:30:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:30:57+00:00</t>
+    <t>2022-09-27T22:49:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T22:49:39+00:00</t>
+    <t>2022-09-27T23:00:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:00:34+00:00</t>
+    <t>2022-09-27T23:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2487" uniqueCount="441">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:08:58+00:00</t>
+    <t>2022-10-27T10:56:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,10 +260,6 @@
   </si>
   <si>
     <t>A list is a curated collection of resources.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}lst-1:A list can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}lst-2:The deleted flag can only be used if the mode of the list is "changes" {mode = 'changes' or entry.deleted.empty()}lst-3:An entry date can only be used if the mode of the list is "working" {mode = 'working' or entry.date.empty()}</t>
   </si>
   <si>
     <t>Act[classCode&lt;ORG,moodCode=EVN]</t>
@@ -1973,21 +1969,21 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1998,28 +1994,28 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2069,13 +2065,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -2095,7 +2091,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2106,25 +2102,25 @@
         <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2175,19 +2171,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2201,7 +2197,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2212,7 +2208,7 @@
         <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>78</v>
@@ -2224,13 +2220,13 @@
         <v>78</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2281,22 +2277,22 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>78</v>
@@ -2307,11 +2303,11 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2330,16 +2326,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2377,19 +2373,19 @@
         <v>78</v>
       </c>
       <c r="AA6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AB6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
+      <c r="AE6" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
@@ -2401,10 +2397,10 @@
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>78</v>
@@ -2415,7 +2411,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -2426,28 +2422,28 @@
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I7" t="s" s="2">
+      <c r="J7" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="J7" t="s" s="2">
-        <v>87</v>
-      </c>
       <c r="K7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2497,19 +2493,19 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>78</v>
@@ -2523,7 +2519,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2534,28 +2530,28 @@
         <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J8" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2605,19 +2601,19 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>78</v>
@@ -2631,7 +2627,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2642,28 +2638,28 @@
         <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I9" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J9" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2713,19 +2709,19 @@
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>78</v>
@@ -2739,7 +2735,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -2759,19 +2755,19 @@
         <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2821,7 +2817,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -2833,7 +2829,7 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
@@ -2842,12 +2838,12 @@
         <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2867,19 +2863,19 @@
         <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2905,31 +2901,31 @@
         <v>78</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="X11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -2941,7 +2937,7 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>78</v>
@@ -2955,7 +2951,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2975,19 +2971,19 @@
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3013,31 +3009,31 @@
         <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="X12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Y12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -3049,7 +3045,7 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>78</v>
@@ -3063,7 +3059,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3074,28 +3070,28 @@
         <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I13" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3145,19 +3141,19 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>78</v>
@@ -3171,7 +3167,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3182,7 +3178,7 @@
         <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>78</v>
@@ -3194,16 +3190,16 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3229,43 +3225,43 @@
         <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="X14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="X14" t="s" s="2">
+      <c r="Y14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="Y14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>169</v>
-      </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>78</v>
@@ -3279,18 +3275,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>78</v>
@@ -3302,16 +3298,16 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3361,22 +3357,22 @@
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>
@@ -3387,11 +3383,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3410,16 +3406,16 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3469,7 +3465,7 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>76</v>
@@ -3484,7 +3480,7 @@
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
@@ -3495,7 +3491,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3503,7 +3499,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>77</v>
@@ -3518,13 +3514,13 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3563,17 +3559,17 @@
         <v>78</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
@@ -3585,7 +3581,7 @@
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>78</v>
@@ -3599,10 +3595,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>78</v>
@@ -3612,11 +3608,11 @@
         <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G18" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
       </c>
@@ -3624,13 +3620,13 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3681,7 +3677,7 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>76</v>
@@ -3690,37 +3686,37 @@
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>195</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>78</v>
@@ -3732,13 +3728,13 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3789,7 +3785,7 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
@@ -3801,7 +3797,7 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>78</v>
@@ -3810,15 +3806,15 @@
         <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>78</v>
@@ -3840,13 +3836,13 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3897,7 +3893,7 @@
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
@@ -3909,7 +3905,7 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>78</v>
@@ -3918,12 +3914,12 @@
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3940,19 +3936,19 @@
         <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4003,7 +3999,7 @@
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
@@ -4015,7 +4011,7 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>78</v>
@@ -4029,7 +4025,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4037,7 +4033,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>77</v>
@@ -4052,13 +4048,13 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4097,17 +4093,17 @@
         <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
@@ -4119,34 +4115,34 @@
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>216</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>78</v>
@@ -4158,13 +4154,13 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4215,7 +4211,7 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>76</v>
@@ -4227,13 +4223,13 @@
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>78</v>
@@ -4241,7 +4237,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4252,7 +4248,7 @@
         <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>78</v>
@@ -4264,13 +4260,13 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4321,22 +4317,22 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
@@ -4347,11 +4343,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4370,16 +4366,16 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4417,19 +4413,19 @@
         <v>78</v>
       </c>
       <c r="AA25" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AB25" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AB25" t="s" s="2">
+      <c r="AC25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD25" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AC25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD25" t="s" s="2">
+      <c r="AE25" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
@@ -4441,10 +4437,10 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
@@ -4455,7 +4451,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4463,34 +4459,34 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="I26" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>78</v>
@@ -4500,61 +4496,61 @@
         <v>78</v>
       </c>
       <c r="R26" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W26" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="S26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W26" t="s" s="2">
+      <c r="X26" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="X26" t="s" s="2">
+      <c r="Y26" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="Y26" t="s" s="2">
+      <c r="Z26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="Z26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE26" t="s" s="2">
+      <c r="AF26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>78</v>
@@ -4565,7 +4561,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4576,31 +4572,31 @@
         <v>76</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J27" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>78</v>
@@ -4625,46 +4621,46 @@
         <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="Y27" t="s" s="2">
+      <c r="Z27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>239</v>
-      </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>78</v>
@@ -4675,7 +4671,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4686,31 +4682,31 @@
         <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>78</v>
@@ -4723,58 +4719,58 @@
         <v>78</v>
       </c>
       <c r="S28" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="T28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE28" t="s" s="2">
+      <c r="AF28" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
@@ -4785,7 +4781,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4796,28 +4792,28 @@
         <v>76</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4831,58 +4827,58 @@
         <v>78</v>
       </c>
       <c r="S29" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="T29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE29" t="s" s="2">
+      <c r="AF29" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>78</v>
@@ -4893,7 +4889,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4904,25 +4900,25 @@
         <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J30" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4973,22 +4969,22 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
@@ -4999,7 +4995,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5010,28 +5006,28 @@
         <v>76</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J31" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5081,22 +5077,22 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
@@ -5107,10 +5103,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>78</v>
@@ -5132,13 +5128,13 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5189,7 +5185,7 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -5201,13 +5197,13 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>78</v>
@@ -5215,7 +5211,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5226,7 +5222,7 @@
         <v>76</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>78</v>
@@ -5238,13 +5234,13 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5295,22 +5291,22 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
@@ -5321,11 +5317,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5344,16 +5340,16 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5391,19 +5387,19 @@
         <v>78</v>
       </c>
       <c r="AA34" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AB34" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AB34" t="s" s="2">
+      <c r="AC34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD34" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AC34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD34" t="s" s="2">
+      <c r="AE34" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -5415,10 +5411,10 @@
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>78</v>
@@ -5429,7 +5425,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5437,34 +5433,34 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H35" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="I35" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J35" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>78</v>
@@ -5474,7 +5470,7 @@
         <v>78</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>78</v>
@@ -5489,46 +5485,46 @@
         <v>78</v>
       </c>
       <c r="W35" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="X35" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="X35" t="s" s="2">
+      <c r="Y35" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="Y35" t="s" s="2">
+      <c r="Z35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE35" t="s" s="2">
+      <c r="AF35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
@@ -5539,7 +5535,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5550,31 +5546,31 @@
         <v>76</v>
       </c>
       <c r="F36" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J36" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>78</v>
@@ -5599,46 +5595,46 @@
         <v>78</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="Y36" t="s" s="2">
+      <c r="Z36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE36" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="Z36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>239</v>
-      </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
@@ -5649,7 +5645,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5660,31 +5656,31 @@
         <v>76</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>78</v>
@@ -5697,58 +5693,58 @@
         <v>78</v>
       </c>
       <c r="S37" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE37" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="T37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE37" t="s" s="2">
+      <c r="AF37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
@@ -5759,7 +5755,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5770,28 +5766,28 @@
         <v>76</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J38" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5805,58 +5801,58 @@
         <v>78</v>
       </c>
       <c r="S38" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE38" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="T38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE38" t="s" s="2">
+      <c r="AF38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
@@ -5867,7 +5863,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5878,25 +5874,25 @@
         <v>76</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J39" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5947,22 +5943,22 @@
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
@@ -5973,7 +5969,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5984,28 +5980,28 @@
         <v>76</v>
       </c>
       <c r="F40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J40" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6055,22 +6051,22 @@
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
@@ -6081,7 +6077,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6089,31 +6085,31 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H41" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="I41" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J41" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6139,57 +6135,57 @@
         <v>78</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Y41" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Y41" t="s" s="2">
+      <c r="Z41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
+      <c r="AK41" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>278</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6197,34 +6193,34 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H42" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="I42" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J42" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>78</v>
@@ -6234,72 +6230,72 @@
         <v>78</v>
       </c>
       <c r="R42" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="X42" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="S42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="X42" t="s" s="2">
+      <c r="Y42" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="Y42" t="s" s="2">
+      <c r="Z42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
+      <c r="AK42" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AK42" t="s" s="2">
+      <c r="AL42" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>289</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6310,29 +6306,29 @@
         <v>76</v>
       </c>
       <c r="F43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J43" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>78</v>
@@ -6345,69 +6341,69 @@
         <v>78</v>
       </c>
       <c r="S43" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="T43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
+      <c r="AK43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>296</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6415,34 +6411,34 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F44" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J44" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>78</v>
@@ -6452,7 +6448,7 @@
         <v>78</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>78</v>
@@ -6467,55 +6463,55 @@
         <v>78</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="Z44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
+      <c r="AK44" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>306</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6523,34 +6519,34 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G45" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="H45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J45" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>78</v>
@@ -6599,33 +6595,33 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>315</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6636,7 +6632,7 @@
         <v>76</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>78</v>
@@ -6648,13 +6644,13 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6705,22 +6701,22 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
@@ -6731,11 +6727,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6754,16 +6750,16 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6801,19 +6797,19 @@
         <v>78</v>
       </c>
       <c r="AA47" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AB47" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AB47" t="s" s="2">
+      <c r="AC47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD47" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AC47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD47" t="s" s="2">
+      <c r="AE47" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -6825,10 +6821,10 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
@@ -6839,7 +6835,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6847,31 +6843,31 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G48" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="H48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I48" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J48" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6921,22 +6917,22 @@
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH48" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AF48" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>323</v>
-      </c>
       <c r="AI48" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
@@ -6947,7 +6943,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6958,28 +6954,28 @@
         <v>76</v>
       </c>
       <c r="F49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J49" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7005,46 +7001,46 @@
         <v>78</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="Y49" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="Y49" t="s" s="2">
+      <c r="Z49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE49" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>330</v>
-      </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
@@ -7055,7 +7051,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7066,28 +7062,28 @@
         <v>76</v>
       </c>
       <c r="F50" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J50" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7137,22 +7133,22 @@
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
@@ -7163,7 +7159,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7174,28 +7170,28 @@
         <v>76</v>
       </c>
       <c r="F51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J51" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7245,22 +7241,22 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
@@ -7271,7 +7267,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7294,13 +7290,13 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>345</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7351,33 +7347,33 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AK52" t="s" s="2">
-        <v>347</v>
-      </c>
       <c r="AL52" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7385,34 +7381,34 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F53" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J53" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>78</v>
@@ -7461,68 +7457,68 @@
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AK53" t="s" s="2">
+      <c r="AL53" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>356</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G54" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>78</v>
@@ -7571,33 +7567,33 @@
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>366</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7608,7 +7604,7 @@
         <v>76</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>78</v>
@@ -7620,13 +7616,13 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7677,22 +7673,22 @@
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
@@ -7703,11 +7699,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7726,16 +7722,16 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7773,19 +7769,19 @@
         <v>78</v>
       </c>
       <c r="AA56" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AB56" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AB56" t="s" s="2">
+      <c r="AC56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD56" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AC56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD56" t="s" s="2">
+      <c r="AE56" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
@@ -7797,10 +7793,10 @@
         <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
@@ -7811,10 +7807,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="B57" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="C57" t="s" s="2">
         <v>78</v>
@@ -7824,7 +7820,7 @@
         <v>76</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>78</v>
@@ -7836,13 +7832,13 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7893,7 +7889,7 @@
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
@@ -7905,7 +7901,7 @@
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>78</v>
@@ -7914,12 +7910,12 @@
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7930,28 +7926,28 @@
         <v>76</v>
       </c>
       <c r="F58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I58" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J58" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8001,22 +7997,22 @@
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH58" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AF58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>323</v>
-      </c>
       <c r="AI58" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>78</v>
@@ -8027,7 +8023,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8038,28 +8034,28 @@
         <v>76</v>
       </c>
       <c r="F59" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I59" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J59" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8085,46 +8081,46 @@
         <v>78</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="Y59" t="s" s="2">
+      <c r="Z59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE59" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>330</v>
-      </c>
       <c r="AF59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>78</v>
@@ -8135,7 +8131,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8146,28 +8142,28 @@
         <v>76</v>
       </c>
       <c r="F60" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I60" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J60" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8217,22 +8213,22 @@
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>78</v>
@@ -8243,7 +8239,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8254,28 +8250,28 @@
         <v>76</v>
       </c>
       <c r="F61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I61" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J61" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8325,22 +8321,22 @@
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>78</v>
@@ -8351,7 +8347,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8374,19 +8370,19 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>78</v>
@@ -8411,57 +8407,57 @@
         <v>78</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X62" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Y62" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="Y62" t="s" s="2">
+      <c r="Z62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="Z62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8472,7 +8468,7 @@
         <v>76</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>78</v>
@@ -8484,13 +8480,13 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8541,7 +8537,7 @@
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
@@ -8553,21 +8549,21 @@
         <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>391</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8590,16 +8586,16 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="K64" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="K64" t="s" s="2">
+      <c r="L64" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8649,7 +8645,7 @@
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
@@ -8658,13 +8654,13 @@
         <v>77</v>
       </c>
       <c r="AH64" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>78</v>
@@ -8675,7 +8671,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8686,7 +8682,7 @@
         <v>76</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>78</v>
@@ -8698,13 +8694,13 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8755,22 +8751,22 @@
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
@@ -8781,11 +8777,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -8804,16 +8800,16 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -8863,7 +8859,7 @@
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>76</v>
@@ -8875,10 +8871,10 @@
         <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
@@ -8889,11 +8885,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -8906,25 +8902,25 @@
         <v>78</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N67" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>78</v>
@@ -8973,7 +8969,7 @@
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>76</v>
@@ -8985,10 +8981,10 @@
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
@@ -8999,7 +8995,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9022,19 +9018,19 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>78</v>
@@ -9059,14 +9055,14 @@
         <v>78</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X68" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="Y68" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="Y68" t="s" s="2">
-        <v>413</v>
-      </c>
       <c r="Z68" t="s" s="2">
         <v>78</v>
       </c>
@@ -9083,33 +9079,33 @@
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9126,102 +9122,102 @@
         <v>78</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="K69" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="K69" t="s" s="2">
+      <c r="L69" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="N69" t="s" s="2">
+      <c r="O69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P69" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="O69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P69" t="s" s="2">
+      <c r="Q69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH69" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="Q69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH69" t="s" s="2">
+      <c r="AI69" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AI69" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="AK69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9244,17 +9240,17 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>78</v>
@@ -9303,33 +9299,33 @@
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9337,10 +9333,10 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>78</v>
@@ -9352,13 +9348,13 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9409,33 +9405,33 @@
         <v>78</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ71" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>433</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9458,19 +9454,19 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>78</v>
@@ -9495,52 +9491,52 @@
         <v>78</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="X72" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="Y72" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="Y72" t="s" s="2">
+      <c r="Z72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="Z72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>441</v>
-      </c>
       <c r="AK72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T10:56:05+00:00</t>
+    <t>2022-11-23T04:23:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T04:23:36+00:00</t>
+    <t>2022-11-23T11:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:18:03+00:00</t>
+    <t>2022-11-23T11:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:20:15+00:00</t>
+    <t>2022-11-23T15:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T15:17:18+00:00</t>
+    <t>2022-11-28T15:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T15:39:12+00:00</t>
+    <t>2022-11-28T23:56:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T23:56:31+00:00</t>
+    <t>2022-11-29T11:57:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:57:57+00:00</t>
+    <t>2022-11-30T13:59:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:59:42+00:00</t>
+    <t>2022-11-30T15:11:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T15:11:20+00:00</t>
+    <t>2022-11-30T15:45:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-08T23:46:44+00:00</t>
+    <t>2023-01-09T00:16:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
+++ b/refs/heads/main/StructureDefinition-DDCCSubmissionSet.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:19:24+00:00</t>
+    <t>2023-01-11T17:29:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
